--- a/O-Flight/Data Transmission/Materials Schedule.xlsx
+++ b/O-Flight/Data Transmission/Materials Schedule.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -62,9 +62,6 @@
     <t>GetFPV</t>
   </si>
   <si>
-    <t>Copper Tape</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 87965K17</t>
   </si>
   <si>
@@ -78,6 +75,9 @@
   </si>
   <si>
     <t>Tapes Master</t>
+  </si>
+  <si>
+    <t>Copper Tape 3" x 10'</t>
   </si>
 </sst>
 </file>
@@ -528,7 +528,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,12 +561,12 @@
         <v>4</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
@@ -575,7 +575,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>6</v>
@@ -612,20 +612,20 @@
     </row>
     <row r="4" spans="1:7" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B4" s="3">
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G4" s="10">
         <v>5.95</v>
